--- a/output/3Y_P78_KFSDIV.xlsx
+++ b/output/3Y_P78_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4316,7 +4319,7 @@
         <v>305834.8527</v>
       </c>
       <c r="K28" s="1">
-        <v>242617.4824</v>
+        <v>242619.0041</v>
       </c>
       <c r="L28" s="1">
         <v>10.3848</v>
@@ -4369,7 +4372,7 @@
         <v>301410.6206</v>
       </c>
       <c r="K29" s="1">
-        <v>243802.7631</v>
+        <v>243804.2848</v>
       </c>
       <c r="L29" s="1">
         <v>10.3899</v>
@@ -4422,7 +4425,7 @@
         <v>330725.7106</v>
       </c>
       <c r="K30" s="1">
-        <v>268320.2308</v>
+        <v>268321.7524</v>
       </c>
       <c r="L30" s="1">
         <v>10.4375</v>
@@ -4475,10 +4478,10 @@
         <v>350629.3523</v>
       </c>
       <c r="K31" s="1">
-        <v>269471.1991</v>
+        <v>269472.7207</v>
       </c>
       <c r="L31" s="1">
-        <v>10.4408</v>
+        <v>10.4409</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4528,7 +4531,7 @@
         <v>352145.4085</v>
       </c>
       <c r="K32" s="1">
-        <v>269563.324</v>
+        <v>269564.8457</v>
       </c>
       <c r="L32" s="1">
         <v>10.4412</v>
@@ -4581,7 +4584,7 @@
         <v>362840.9411</v>
       </c>
       <c r="K33" s="1">
-        <v>288121.0535</v>
+        <v>288122.5752</v>
       </c>
       <c r="L33" s="1">
         <v>10.4946</v>
@@ -4634,7 +4637,7 @@
         <v>375884.6591</v>
       </c>
       <c r="K34" s="1">
-        <v>306720.0025</v>
+        <v>306721.5242</v>
       </c>
       <c r="L34" s="1">
         <v>10.5253</v>
@@ -4687,7 +4690,7 @@
         <v>371383.8254</v>
       </c>
       <c r="K35" s="1">
-        <v>313629.5088</v>
+        <v>313631.0305</v>
       </c>
       <c r="L35" s="1">
         <v>10.538</v>
@@ -4740,10 +4743,10 @@
         <v>363288.3173</v>
       </c>
       <c r="K36" s="1">
-        <v>338201.062</v>
+        <v>338202.5836</v>
       </c>
       <c r="L36" s="1">
-        <v>10.5456</v>
+        <v>10.5457</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4793,10 +4796,10 @@
         <v>393415.6619</v>
       </c>
       <c r="K37" s="1">
-        <v>369000.0355</v>
+        <v>369001.5572</v>
       </c>
       <c r="L37" s="1">
-        <v>10.4975</v>
+        <v>10.4976</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4846,10 +4849,10 @@
         <v>411167.226</v>
       </c>
       <c r="K38" s="1">
-        <v>358708.2926</v>
+        <v>358750.9797</v>
       </c>
       <c r="L38" s="1">
-        <v>10.4953</v>
+        <v>10.4966</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6886,10 +6889,10 @@
         <v>413213.7631</v>
       </c>
       <c r="K38" s="1">
-        <v>393074.4951</v>
+        <v>393080.0483</v>
       </c>
       <c r="L38" s="1">
-        <v>10.5254</v>
+        <v>10.5256</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,10 +11048,10 @@
         <v>10.6097</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4953</v>
+        <v>10.4966</v>
       </c>
       <c r="E3" s="1">
-        <v>10.5254</v>
+        <v>10.5256</v>
       </c>
       <c r="F3" s="1">
         <v>10.5881</v>
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>47450.6851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0142</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1461</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0512</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0162</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0141</v>
       </c>
     </row>
   </sheetData>
